--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABDF/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABDF/20/seed2/result_data_RandomForest.xlsx
@@ -465,7 +465,7 @@
         <v>-21.2</v>
       </c>
       <c r="B2" t="n">
-        <v>6.359999999999997</v>
+        <v>6.191899999999997</v>
       </c>
       <c r="C2" t="n">
         <v>-10.8</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.59320000000004</v>
+        <v>-21.42230000000003</v>
       </c>
       <c r="B3" t="n">
         <v>4.54</v>
@@ -516,13 +516,13 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.153500000000004</v>
+        <v>5.362800000000002</v>
       </c>
       <c r="C5" t="n">
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.852499999999999</v>
+        <v>-8.918299999999995</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -559,7 +559,7 @@
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>11.943</v>
+        <v>11.73409999999999</v>
       </c>
     </row>
     <row r="8">
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.749700000000006</v>
+        <v>-8.976000000000004</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -624,10 +624,10 @@
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.616099999999999</v>
+        <v>-8.367500000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>12.21619999999998</v>
+        <v>12.8635</v>
       </c>
     </row>
     <row r="12">
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-20.37549999999997</v>
+        <v>-20.62039999999998</v>
       </c>
       <c r="B14" t="n">
         <v>8.33</v>
@@ -700,10 +700,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.49740000000003</v>
+        <v>-21.35460000000003</v>
       </c>
       <c r="B16" t="n">
-        <v>5.7879</v>
+        <v>5.247200000000003</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -726,7 +726,7 @@
         <v>-12.35</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.780800000000001</v>
+        <v>-9.040600000000001</v>
       </c>
       <c r="E17" t="n">
         <v>8.15</v>
@@ -763,7 +763,7 @@
         <v>-8.470000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>13.19499999999999</v>
+        <v>12.9628</v>
       </c>
     </row>
     <row r="20">
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.26150000000001</v>
+        <v>-21.3186</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
@@ -794,10 +794,10 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.973600000000009</v>
+        <v>-8.461200000000002</v>
       </c>
       <c r="E21" t="n">
-        <v>13.02520000000001</v>
+        <v>12.53160000000001</v>
       </c>
     </row>
     <row r="22">
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-21.48510000000002</v>
+        <v>-21.40310000000002</v>
       </c>
       <c r="B23" t="n">
         <v>5.8</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.44220000000004</v>
+        <v>-22.33720000000004</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
